--- a/VersionRecords/Version 6.0.9 20170518/版本Bug和特性计划及评审表v6.0.9_极光组.xlsx
+++ b/VersionRecords/Version 6.0.9 20170518/版本Bug和特性计划及评审表v6.0.9_极光组.xlsx
@@ -1068,6 +1068,39 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1094,39 +1127,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:X167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5949,56 +5949,56 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="49.5">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="98" t="s">
+      <c r="N2" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="100"/>
+      <c r="R2" s="91"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
@@ -6067,19 +6067,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6117,8 +6117,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6130,8 +6130,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6143,8 +6143,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6156,8 +6156,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6169,8 +6169,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6182,8 +6182,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6195,8 +6195,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6208,8 +6208,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6270,36 +6270,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6584,36 +6584,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6898,36 +6898,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7214,36 +7214,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
